--- a/analyse/P4_01_analyse.xlsx
+++ b/analyse/P4_01_analyse.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHAHAD\Desktop\La_chouette_optimise\analyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724FF465-A39B-412D-821E-38A9A5260E05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96B16408-39F1-4362-A996-C706D3892748}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit" sheetId="1" r:id="rId1"/>
     <sheet name="Résultat de l'Audit" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="169">
   <si>
     <t>Audit du site web : La Chouette agence</t>
   </si>
@@ -553,6 +554,12 @@
   </si>
   <si>
     <t xml:space="preserve"> https://fadioc78.github.io/La_chouette_optimise/</t>
+  </si>
+  <si>
+    <t>Le projet d'origine avait de mauvais scores sur des outils comme Lighthouse de Google. Après optimisation le site a obtenu des scores tout à fait corrects pour ses performances , son accessibilité et son SEO.</t>
+  </si>
+  <si>
+    <t>J'ai réalisé le site web de La chouette agence en tant que developpeur front-end. Une version était fournie et l'objectif de ce projet était de l'améliorer.</t>
   </si>
 </sst>
 </file>
@@ -1258,10 +1265,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:K89"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.5"/>
@@ -1315,99 +1322,79 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="4" t="s">
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4" t="s">
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="B17" s="4" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="B19" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A19" s="5" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="7"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="10"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A21" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="13"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="7"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A22" s="8"/>
-      <c r="B22" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="15"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
@@ -1418,38 +1405,38 @@
       <c r="K22" s="10"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A23" s="9"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="10"/>
+      <c r="A23" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="13"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A24" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="13"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="10"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A25" s="8"/>
-      <c r="B25" s="14" t="s">
-        <v>116</v>
-      </c>
+      <c r="A25" s="9"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="15"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
@@ -1461,38 +1448,38 @@
       <c r="K25" s="10"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A26" s="9"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="10"/>
+      <c r="A26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="13"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A27" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="13"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="10"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A28" s="8"/>
-      <c r="B28" s="14" t="s">
-        <v>117</v>
-      </c>
+      <c r="A28" s="9"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="15"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
@@ -1504,38 +1491,38 @@
       <c r="K28" s="10"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A29" s="9"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="10"/>
+      <c r="A29" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="13"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A30" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="13"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="10"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A31" s="8"/>
-      <c r="B31" s="14" t="s">
-        <v>21</v>
-      </c>
+      <c r="A31" s="9"/>
+      <c r="B31" s="14"/>
       <c r="C31" s="15"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -1547,24 +1534,24 @@
       <c r="K31" s="10"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A32" s="8"/>
-      <c r="B32" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="10"/>
+      <c r="A32" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="13"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A33" s="8"/>
-      <c r="B33" s="16" t="s">
-        <v>118</v>
+      <c r="B33" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="9"/>
@@ -1578,8 +1565,10 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A34" s="8"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
+      <c r="B34" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="15"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
@@ -1590,26 +1579,24 @@
       <c r="K34" s="10"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A35" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="13"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="10"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A36" s="8"/>
-      <c r="B36" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="15"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
@@ -1620,68 +1607,68 @@
       <c r="K36" s="10"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="19"/>
+      <c r="A37" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="13"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A38" s="8"/>
+      <c r="B38" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="10"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="17"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="19"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A41" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="22"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="25"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A41" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="13"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="22"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A42" s="24"/>
-      <c r="B42" s="28" t="s">
-        <v>27</v>
-      </c>
+      <c r="A42" s="23"/>
+      <c r="B42" s="24"/>
       <c r="C42" s="24"/>
-      <c r="D42" s="29"/>
+      <c r="D42" s="24"/>
       <c r="E42" s="24"/>
       <c r="F42" s="24"/>
       <c r="G42" s="24"/>
@@ -1691,32 +1678,34 @@
       <c r="K42" s="25"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="25"/>
+      <c r="A43" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="13"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A44" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="13"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="24"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="25"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A45" s="24"/>
@@ -1733,7 +1722,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A46" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B46" s="27"/>
       <c r="C46" s="27"/>
@@ -1761,7 +1750,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A48" s="26" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="B48" s="27"/>
       <c r="C48" s="27"/>
@@ -1776,9 +1765,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A49" s="24"/>
-      <c r="B49" s="30" t="s">
-        <v>29</v>
-      </c>
+      <c r="B49" s="24"/>
       <c r="C49" s="24"/>
       <c r="D49" s="29"/>
       <c r="E49" s="24"/>
@@ -1790,36 +1777,38 @@
       <c r="K49" s="25"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A50" s="24"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="25"/>
+      <c r="A50" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="13"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A51" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="13"/>
+      <c r="A51" s="24"/>
+      <c r="B51" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="24"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="25"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
+      <c r="B52" s="28"/>
       <c r="C52" s="24"/>
       <c r="D52" s="29"/>
       <c r="E52" s="24"/>
@@ -1832,7 +1821,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A53" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B53" s="27"/>
       <c r="C53" s="27"/>
@@ -1847,9 +1836,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A54" s="24"/>
-      <c r="B54" s="30" t="s">
-        <v>121</v>
-      </c>
+      <c r="B54" s="24"/>
       <c r="C54" s="24"/>
       <c r="D54" s="29"/>
       <c r="E54" s="24"/>
@@ -1861,42 +1848,42 @@
       <c r="K54" s="25"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A55" s="24"/>
-      <c r="B55" s="30" t="s">
+      <c r="A55" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="13"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A56" s="24"/>
+      <c r="B56" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" s="24"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="25"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A57" s="24"/>
+      <c r="B57" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="24"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="24"/>
-      <c r="K55" s="25"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A56" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B56" s="32"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="13"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A57" s="33"/>
-      <c r="B57" s="30" t="s">
-        <v>33</v>
-      </c>
       <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
+      <c r="D57" s="29"/>
       <c r="E57" s="24"/>
       <c r="F57" s="24"/>
       <c r="G57" s="24"/>
@@ -1906,25 +1893,27 @@
       <c r="K57" s="25"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A58" s="33"/>
-      <c r="B58" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="24"/>
-      <c r="K58" s="25"/>
+      <c r="A58" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" s="32"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="13"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A59" s="24"/>
-      <c r="B59" s="30"/>
+      <c r="A59" s="33"/>
+      <c r="B59" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="C59" s="24"/>
-      <c r="D59" s="29"/>
+      <c r="D59" s="24"/>
       <c r="E59" s="24"/>
       <c r="F59" s="24"/>
       <c r="G59" s="24"/>
@@ -1934,25 +1923,23 @@
       <c r="K59" s="25"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A60" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="13"/>
+      <c r="A60" s="33"/>
+      <c r="B60" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="25"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A61" s="24"/>
-      <c r="B61" s="28" t="s">
-        <v>123</v>
-      </c>
+      <c r="B61" s="30"/>
       <c r="C61" s="24"/>
       <c r="D61" s="29"/>
       <c r="E61" s="24"/>
@@ -1964,24 +1951,24 @@
       <c r="K61" s="25"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A62" s="24"/>
-      <c r="B62" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="C62" s="24"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="24"/>
-      <c r="K62" s="25"/>
+      <c r="A62" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="13"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A63" s="24"/>
-      <c r="B63" s="30" t="s">
-        <v>125</v>
+      <c r="B63" s="28" t="s">
+        <v>123</v>
       </c>
       <c r="C63" s="24"/>
       <c r="D63" s="29"/>
@@ -1995,7 +1982,9 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A64" s="24"/>
-      <c r="B64" s="28"/>
+      <c r="B64" s="28" t="s">
+        <v>124</v>
+      </c>
       <c r="C64" s="24"/>
       <c r="D64" s="29"/>
       <c r="E64" s="24"/>
@@ -2007,123 +1996,123 @@
       <c r="K64" s="25"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A65" s="34" t="s">
+      <c r="A65" s="24"/>
+      <c r="B65" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C65" s="24"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="24"/>
+      <c r="K65" s="25"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A66" s="24"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="24"/>
+      <c r="K66" s="25"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A67" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="27"/>
-      <c r="K65" s="13"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A66" s="35"/>
-      <c r="B66" s="36" t="s">
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="27"/>
+      <c r="K67" s="13"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A68" s="35"/>
+      <c r="B68" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="21"/>
-      <c r="K66" s="22"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A67" s="37"/>
-      <c r="B67" s="30"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="24"/>
-      <c r="J67" s="24"/>
-      <c r="K67" s="25"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A68" s="38" t="s">
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="22"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A69" s="37"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="25"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A70" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="B68" s="39"/>
-      <c r="C68" s="40"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="40"/>
-      <c r="K68" s="13"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A69" s="41"/>
-      <c r="B69" s="42"/>
-      <c r="C69" s="43"/>
-      <c r="D69" s="43"/>
-      <c r="E69" s="43"/>
-      <c r="F69" s="43"/>
-      <c r="G69" s="43"/>
-      <c r="H69" s="43"/>
-      <c r="I69" s="43"/>
-      <c r="J69" s="43"/>
-      <c r="K69" s="44"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="40"/>
+      <c r="G70" s="40"/>
+      <c r="H70" s="40"/>
+      <c r="I70" s="40"/>
+      <c r="J70" s="40"/>
+      <c r="K70" s="13"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A71" s="45" t="s">
+      <c r="A71" s="41"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="43"/>
+      <c r="G71" s="43"/>
+      <c r="H71" s="43"/>
+      <c r="I71" s="43"/>
+      <c r="J71" s="43"/>
+      <c r="K71" s="44"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A73" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="B71" s="46"/>
-      <c r="C71" s="46"/>
-      <c r="D71" s="46"/>
-      <c r="E71" s="46"/>
-      <c r="F71" s="46"/>
-      <c r="G71" s="46"/>
-      <c r="H71" s="46"/>
-      <c r="I71" s="46"/>
-      <c r="J71" s="46"/>
-      <c r="K71" s="47"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A72" s="48"/>
-      <c r="B72" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="C72" s="50"/>
-      <c r="D72" s="50"/>
-      <c r="E72" s="50"/>
-      <c r="F72" s="50"/>
-      <c r="G72" s="50"/>
-      <c r="H72" s="50"/>
-      <c r="I72" s="50"/>
-      <c r="J72" s="50"/>
-      <c r="K72" s="51"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A73" s="48"/>
-      <c r="B73" s="49"/>
-      <c r="C73" s="50"/>
-      <c r="D73" s="50"/>
-      <c r="E73" s="50"/>
-      <c r="F73" s="50"/>
-      <c r="G73" s="50"/>
-      <c r="H73" s="50"/>
-      <c r="I73" s="50"/>
-      <c r="J73" s="50"/>
-      <c r="K73" s="51"/>
+      <c r="B73" s="46"/>
+      <c r="C73" s="46"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="46"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="46"/>
+      <c r="H73" s="46"/>
+      <c r="I73" s="46"/>
+      <c r="J73" s="46"/>
+      <c r="K73" s="47"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A74" s="48"/>
       <c r="B74" s="49" t="s">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="C74" s="50"/>
       <c r="D74" s="50"/>
@@ -2137,9 +2126,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A75" s="48"/>
-      <c r="B75" s="49" t="s">
-        <v>39</v>
-      </c>
+      <c r="B75" s="49"/>
       <c r="C75" s="50"/>
       <c r="D75" s="50"/>
       <c r="E75" s="50"/>
@@ -2152,7 +2139,9 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A76" s="48"/>
-      <c r="B76" s="49"/>
+      <c r="B76" s="49" t="s">
+        <v>128</v>
+      </c>
       <c r="C76" s="50"/>
       <c r="D76" s="50"/>
       <c r="E76" s="50"/>
@@ -2166,7 +2155,7 @@
     <row r="77" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A77" s="48"/>
       <c r="B77" s="49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C77" s="50"/>
       <c r="D77" s="50"/>
@@ -2180,9 +2169,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A78" s="48"/>
-      <c r="B78" s="49" t="s">
-        <v>41</v>
-      </c>
+      <c r="B78" s="49"/>
       <c r="C78" s="50"/>
       <c r="D78" s="50"/>
       <c r="E78" s="50"/>
@@ -2194,23 +2181,25 @@
       <c r="K78" s="51"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A79" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="B79" s="53"/>
-      <c r="C79" s="54"/>
-      <c r="D79" s="54"/>
-      <c r="E79" s="54"/>
-      <c r="F79" s="54"/>
-      <c r="G79" s="54"/>
-      <c r="H79" s="54"/>
-      <c r="I79" s="54"/>
-      <c r="J79" s="54"/>
-      <c r="K79" s="13"/>
+      <c r="A79" s="48"/>
+      <c r="B79" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C79" s="50"/>
+      <c r="D79" s="50"/>
+      <c r="E79" s="50"/>
+      <c r="F79" s="50"/>
+      <c r="G79" s="50"/>
+      <c r="H79" s="50"/>
+      <c r="I79" s="50"/>
+      <c r="J79" s="50"/>
+      <c r="K79" s="51"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A80" s="48"/>
-      <c r="B80" s="49"/>
+      <c r="B80" s="49" t="s">
+        <v>41</v>
+      </c>
       <c r="C80" s="50"/>
       <c r="D80" s="50"/>
       <c r="E80" s="50"/>
@@ -2223,7 +2212,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A81" s="52" t="s">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="B81" s="53"/>
       <c r="C81" s="54"/>
@@ -2237,35 +2226,35 @@
       <c r="K81" s="13"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A82" s="55"/>
-      <c r="B82" s="56"/>
-      <c r="C82" s="57"/>
-      <c r="D82" s="57"/>
-      <c r="E82" s="57"/>
-      <c r="F82" s="57"/>
-      <c r="G82" s="57"/>
-      <c r="H82" s="57"/>
-      <c r="I82" s="57"/>
-      <c r="J82" s="57"/>
-      <c r="K82" s="58"/>
+      <c r="A82" s="48"/>
+      <c r="B82" s="49"/>
+      <c r="C82" s="50"/>
+      <c r="D82" s="50"/>
+      <c r="E82" s="50"/>
+      <c r="F82" s="50"/>
+      <c r="G82" s="50"/>
+      <c r="H82" s="50"/>
+      <c r="I82" s="50"/>
+      <c r="J82" s="50"/>
+      <c r="K82" s="51"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A83" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="B83" s="56"/>
-      <c r="C83" s="57"/>
-      <c r="D83" s="57"/>
-      <c r="E83" s="57"/>
-      <c r="F83" s="57"/>
-      <c r="G83" s="57"/>
-      <c r="H83" s="57"/>
-      <c r="I83" s="57"/>
-      <c r="J83" s="57"/>
+      <c r="A83" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="B83" s="53"/>
+      <c r="C83" s="54"/>
+      <c r="D83" s="54"/>
+      <c r="E83" s="54"/>
+      <c r="F83" s="54"/>
+      <c r="G83" s="54"/>
+      <c r="H83" s="54"/>
+      <c r="I83" s="54"/>
+      <c r="J83" s="54"/>
       <c r="K83" s="13"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A84" s="59"/>
+      <c r="A84" s="55"/>
       <c r="B84" s="56"/>
       <c r="C84" s="57"/>
       <c r="D84" s="57"/>
@@ -2277,54 +2266,52 @@
       <c r="J84" s="57"/>
       <c r="K84" s="58"/>
     </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A85" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="B85" s="56"/>
+      <c r="C85" s="57"/>
+      <c r="D85" s="57"/>
+      <c r="E85" s="57"/>
+      <c r="F85" s="57"/>
+      <c r="G85" s="57"/>
+      <c r="H85" s="57"/>
+      <c r="I85" s="57"/>
+      <c r="J85" s="57"/>
+      <c r="K85" s="13"/>
+    </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A86" s="60" t="s">
+      <c r="A86" s="59"/>
+      <c r="B86" s="56"/>
+      <c r="C86" s="57"/>
+      <c r="D86" s="57"/>
+      <c r="E86" s="57"/>
+      <c r="F86" s="57"/>
+      <c r="G86" s="57"/>
+      <c r="H86" s="57"/>
+      <c r="I86" s="57"/>
+      <c r="J86" s="57"/>
+      <c r="K86" s="58"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A88" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="B86" s="61"/>
-      <c r="C86" s="61"/>
-      <c r="D86" s="61"/>
-      <c r="E86" s="61"/>
-      <c r="F86" s="61"/>
-      <c r="G86" s="61"/>
-      <c r="H86" s="61"/>
-      <c r="I86" s="61"/>
-      <c r="J86" s="61"/>
-      <c r="K86" s="62"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A87" s="63" t="s">
+      <c r="B88" s="61"/>
+      <c r="C88" s="61"/>
+      <c r="D88" s="61"/>
+      <c r="E88" s="61"/>
+      <c r="F88" s="61"/>
+      <c r="G88" s="61"/>
+      <c r="H88" s="61"/>
+      <c r="I88" s="61"/>
+      <c r="J88" s="61"/>
+      <c r="K88" s="62"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A89" s="63" t="s">
         <v>45</v>
-      </c>
-      <c r="B87" s="64"/>
-      <c r="C87" s="64"/>
-      <c r="D87" s="64"/>
-      <c r="E87" s="64"/>
-      <c r="F87" s="64"/>
-      <c r="G87" s="64"/>
-      <c r="H87" s="64"/>
-      <c r="I87" s="64"/>
-      <c r="J87" s="64"/>
-      <c r="K87" s="13"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A88" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="B88" s="64"/>
-      <c r="C88" s="64"/>
-      <c r="D88" s="64"/>
-      <c r="E88" s="64"/>
-      <c r="F88" s="64"/>
-      <c r="G88" s="64"/>
-      <c r="H88" s="64"/>
-      <c r="I88" s="64"/>
-      <c r="J88" s="64"/>
-      <c r="K88" s="13"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A89" s="65" t="s">
-        <v>47</v>
       </c>
       <c r="B89" s="64"/>
       <c r="C89" s="64"/>
@@ -2337,6 +2324,36 @@
       <c r="J89" s="64"/>
       <c r="K89" s="13"/>
     </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A90" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="B90" s="64"/>
+      <c r="C90" s="64"/>
+      <c r="D90" s="64"/>
+      <c r="E90" s="64"/>
+      <c r="F90" s="64"/>
+      <c r="G90" s="64"/>
+      <c r="H90" s="64"/>
+      <c r="I90" s="64"/>
+      <c r="J90" s="64"/>
+      <c r="K90" s="13"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A91" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="B91" s="64"/>
+      <c r="C91" s="64"/>
+      <c r="D91" s="64"/>
+      <c r="E91" s="64"/>
+      <c r="F91" s="64"/>
+      <c r="G91" s="64"/>
+      <c r="H91" s="64"/>
+      <c r="I91" s="64"/>
+      <c r="J91" s="64"/>
+      <c r="K91" s="13"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E1:J1"/>
@@ -2345,6 +2362,7 @@
     <hyperlink ref="B4" r:id="rId1" display="https://www.hugohemon.fr" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2355,7 +2373,7 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
